--- a/biology/Botanique/Clematis_patens_'Evipo046'/Clematis_patens_'Evipo046'.xlsx
+++ b/biology/Botanique/Clematis_patens_'Evipo046'/Clematis_patens_'Evipo046'.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo046%27</t>
+          <t>Clematis_patens_'Evipo046'</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La clématite patens 'Evipo046' est un cultivar de clématite obtenue en 2010 par Raymond Evison en Angleterre. Elle porte le nom commercial de clématite patens Moonfleet 'Evipo046'[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite patens 'Evipo046' est un cultivar de clématite obtenue en 2010 par Raymond Evison en Angleterre. Elle porte le nom commercial de clématite patens Moonfleet 'Evipo046'.
 La clématite Moonfleet a été commercialisée à partir de 2011 par les pépinières Guernsey clematis nursery de Raymond Evison.
-La maison Poulsen Roser propose cette clématite dans sa collection Gardini[2].
+La maison Poulsen Roser propose cette clématite dans sa collection Gardini.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo046%27</t>
+          <t>Clematis_patens_'Evipo046'</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,23 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette clématite fait partie du groupe 3, ce qui signifie que ce cultivar donnera deux floraisons sur le bois de l'année.
-Feuilles
-Les feuilles caduques de cette clématite sont parfois simples, parfois alternes et trifoliées. En moyenne elles mesurent 10 cm[3]
-Tiges
-Les tiges de la clématite Moonfleet apparaissent de couleur verte sur les pousses de l'année, en vieillissant le bois se durcit et devient rougeâtre et marron.
-Fleurs
-La clématite Moonfleet dispose d'une fleur de taille moyenne bleu lilas, puis rose tendre à maturité, elle peut atteindre 18 cm. Les fleurs de ce cultivar apparaissent la plupart du temps sur l'ensemble de la plante en mai et juin pour la floraison printanière et en septembre pour la floraison d'automne.
-Bouton floral et pédoncule
-Le bouton floral de Moonfleet est allongé et ovoïde d'environ 4 à 5 cm, de couleur vert/gris à un quart de son ouverture. Le pédoncule quant à lui mesure environ 40 à 100 millimètres, de couleur verte également.
-Sépales
-Les sépales de la clématite Moonfleet mesurent entre 8 et 10 cm de long. Ils sont ondulés et striés le long de la nervure centrale; ils se chevauchent légèrement. Cette clématite est particulièrement intéressante par son impression de changement de couleur.
-Étamines et stigmates
-Moonfleet possède des  étamines de couleur rouge presque violette et des stigmates de la même couleur.
-Parfum
-Cette clématite n'a pas de parfum.
 </t>
         </is>
       </c>
@@ -540,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo046%27</t>
+          <t>Clematis_patens_'Evipo046'</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,12 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Obtention</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La reproduction asexuée de ce cultivar pour la commercialisation a commencé dans les pépinières de Raymond Evison sur l’île de Guernesey en 2010.
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles caduques de cette clématite sont parfois simples, parfois alternes et trifoliées. En moyenne elles mesurent 10 cm
 </t>
         </is>
       </c>
@@ -571,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo046%27</t>
+          <t>Clematis_patens_'Evipo046'</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,12 +592,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">'Evipo046' est protégé par l'Union pour la protection des obtentions végétales sous licence PBR &amp; PPaf. Le nom commercial 'Moonfleet' est protégé par une licence trademark.
+          <t>Tiges</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tiges de la clématite Moonfleet apparaissent de couleur verte sur les pousses de l'année, en vieillissant le bois se durcit et devient rougeâtre et marron.
 </t>
         </is>
       </c>
@@ -602,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo046%27</t>
+          <t>Clematis_patens_'Evipo046'</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,25 +629,507 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite Moonfleet dispose d'une fleur de taille moyenne bleu lilas, puis rose tendre à maturité, elle peut atteindre 18 cm. Les fleurs de ce cultivar apparaissent la plupart du temps sur l'ensemble de la plante en mai et juin pour la floraison printanière et en septembre pour la floraison d'automne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo046'</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo046%27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bouton floral et pédoncule</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bouton floral de Moonfleet est allongé et ovoïde d'environ 4 à 5 cm, de couleur vert/gris à un quart de son ouverture. Le pédoncule quant à lui mesure environ 40 à 100 millimètres, de couleur verte également.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo046'</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo046%27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sépales</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sépales de la clématite Moonfleet mesurent entre 8 et 10 cm de long. Ils sont ondulés et striés le long de la nervure centrale; ils se chevauchent légèrement. Cette clématite est particulièrement intéressante par son impression de changement de couleur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo046'</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo046%27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Étamines et stigmates</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moonfleet possède des  étamines de couleur rouge presque violette et des stigmates de la même couleur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo046'</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo046%27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Parfum</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette clématite n'a pas de parfum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo046'</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo046%27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Obtention</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La reproduction asexuée de ce cultivar pour la commercialisation a commencé dans les pépinières de Raymond Evison sur l’île de Guernesey en 2010.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo046'</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo046%27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Evipo046' est protégé par l'Union pour la protection des obtentions végétales sous licence PBR &amp; PPaf. Le nom commercial 'Moonfleet' est protégé par une licence trademark.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo046'</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo046%27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantation
-La clématite Moonfleet a été produite pour une culture en pot, mais elle s'adapte très bien en pleine terre également. Elle doit être plantée dans un mélange drainant, fertile et léger. Les racines préfèrent  un sol frais et ombragé.
-Croissance
-À taille adulte cette clématite dispose d'une croissance importante entre 1 et 2 mètres[3].
-Floraison
-Moonfleet fleurit deux fois par an sur le pousse de l'année, du mois de mai et juin pour la floraison printanière et en septembre pour la floraison sur la pousse de l'été de l'automne. Elle fait partie du groupe 2[3].
-Utilisations
-Moonfleet est parfaite pour les pergolas, treillis, tonnelles et clôtures. Elle peut aussi grimper sur des supports naturels tels que les feuillus, des conifères et des arbustes.
-Taille
-La clématite Moonfleet a besoin d'une taille annuelle, souvent au mois de mars mais à toute période de repos végétatif. Elle demande une taille sévère, c'est-à-dire une taille à 30 cm du sol sur un tiers des branches.
-Résistance
-Cette clématite résiste à des températures jusqu'à moins 20 degrés Celsius.
-Maladies et ravageurs
-La clématite Moonfleet est sensible à l'excès d'eau ce qui pourrait provoquer une pourriture du collet de la plante et ainsi la mort de la clématite. elle peut également souffrir d'apoplexie due à un champignon appelé Ascochyta clematidina, provoquant un flétrissement brutal des feuilles. Pour combattre ce champignon la terre doit être remplacée sur 20 cm et l'excès d'eau doit être proscrit.
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Plantation</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite Moonfleet a été produite pour une culture en pot, mais elle s'adapte très bien en pleine terre également. Elle doit être plantée dans un mélange drainant, fertile et léger. Les racines préfèrent  un sol frais et ombragé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo046'</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo046%27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Croissance</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À taille adulte cette clématite dispose d'une croissance importante entre 1 et 2 mètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo046'</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo046%27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Floraison</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moonfleet fleurit deux fois par an sur le pousse de l'année, du mois de mai et juin pour la floraison printanière et en septembre pour la floraison sur la pousse de l'été de l'automne. Elle fait partie du groupe 2.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo046'</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo046%27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moonfleet est parfaite pour les pergolas, treillis, tonnelles et clôtures. Elle peut aussi grimper sur des supports naturels tels que les feuillus, des conifères et des arbustes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo046'</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo046%27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite Moonfleet a besoin d'une taille annuelle, souvent au mois de mars mais à toute période de repos végétatif. Elle demande une taille sévère, c'est-à-dire une taille à 30 cm du sol sur un tiers des branches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo046'</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo046%27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Résistance</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette clématite résiste à des températures jusqu'à moins 20 degrés Celsius.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo046'</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo046%27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Maladies et ravageurs</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite Moonfleet est sensible à l'excès d'eau ce qui pourrait provoquer une pourriture du collet de la plante et ainsi la mort de la clématite. elle peut également souffrir d'apoplexie due à un champignon appelé Ascochyta clematidina, provoquant un flétrissement brutal des feuilles. Pour combattre ce champignon la terre doit être remplacée sur 20 cm et l'excès d'eau doit être proscrit.
 Les limaces peuvent également s'attaquer à cette clématite et notamment aux jeunes pousses du printemps.
 </t>
         </is>
